--- a/src/test/resources/ticket584.xlsx
+++ b/src/test/resources/ticket584.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="634" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="494" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Loader" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Sheet</t>
   </si>
@@ -209,7 +209,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -271,66 +271,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5465587044534"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.76113360323887"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3238866396761"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="19.5465587044534"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.76113360323887"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/test/resources/ticket584.xlsx
+++ b/src/test/resources/ticket584.xlsx
@@ -40,24 +40,12 @@
     <t>@base</t>
   </si>
   <si>
-    <t>http://example.org/ex1</t>
-  </si>
-  <si>
-    <t>http://foo.bar/data#</t>
-  </si>
-  <si>
-    <t>http://foo.bar/model#</t>
-  </si>
-  <si>
     <t>@prefix</t>
   </si>
   <si>
     <t>abox:</t>
   </si>
   <si>
-    <t>http:/foo.bar/data#</t>
-  </si>
-  <si>
     <t>tbox:</t>
   </si>
   <si>
@@ -92,6 +80,18 @@
   </si>
   <si>
     <t>:schema</t>
+  </si>
+  <si>
+    <t>&lt;http://example.org/ex1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://foo.bar/data#&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://foo.bar/model#&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http:/foo.bar/data#&gt;</t>
   </si>
 </sst>
 </file>
@@ -500,14 +500,14 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+      <selection activeCell="D5" sqref="D1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="19.5703125"/>
     <col min="3" max="3" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -519,51 +519,51 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -587,24 +587,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -630,24 +630,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
